--- a/document/知识库功能点.xlsx
+++ b/document/知识库功能点.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,103 +152,359 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>主键id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航树json对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点目标对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子节点，为空时为叶子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容html字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷题目列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出卷人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upunitid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级单位id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iadmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型：一般用户、老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码,md5加密后结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态：删除、锁定、离职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试结果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exampaperid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>proname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>family</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文大类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史查询关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主键id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导航树json对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点目标对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>children</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子节点，为空时为叶子节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容html字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题库表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>options</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目类型：单选、多选、判断、问答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>option</t>
+    <t>关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目类型：单选[1]、多选[2]、判断[3]、问答[4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,35 +512,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>试卷表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出题人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试卷标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试卷题目列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出卷人</t>
+    <t>出题人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -292,19 +520,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>试卷状态：未考试、考试中、考试结束、作废</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>examtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考试时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
+    <t>题目状态：删除[0]、发布[3]、新建[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷状态：未考试[0]、考试中[1]、考试结束[2]、作废[3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,135 +536,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upunitid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级单位id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iadmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户类型：一般用户、老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码,md5加密后结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态：删除、锁定、离职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考试结果表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exampaperid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试卷ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答题用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答题开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答题结束时间</t>
+    <t>考试时间,什么时候考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推迟时间,默认0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案，自己填写答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +597,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,8 +622,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -548,11 +678,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -563,6 +730,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,8 +763,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -587,14 +793,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,16 +1299,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1095,7 +1319,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +1328,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1113,7 +1337,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1122,7 +1346,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1133,7 +1357,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1395,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1179,7 +1403,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1322,638 +1546,853 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="26"/>
+      <c r="B18" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="26"/>
+      <c r="B20" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="27"/>
+      <c r="B21" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="31"/>
+      <c r="B23" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="31"/>
+      <c r="B24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="31"/>
+      <c r="B25" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="23"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="23"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="23"/>
+      <c r="B45" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="C48" s="24"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="C49" s="24"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="11" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="13"/>
+      <c r="B52" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
+      <c r="C54" s="24"/>
+      <c r="D54" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="23"/>
+      <c r="B57" s="24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="C57" s="24"/>
+      <c r="D57" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="23"/>
+      <c r="B58" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="23"/>
+      <c r="B59" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="23"/>
+      <c r="B60" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="23"/>
+      <c r="B62" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="C63" s="14"/>
+      <c r="D63" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="13"/>
+      <c r="B64" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="13"/>
+      <c r="B65" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="13"/>
+      <c r="B66" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="13"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="13"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="13"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="13"/>
+      <c r="B70" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="13"/>
+      <c r="B71" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="13"/>
+      <c r="B72" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="13"/>
+      <c r="B73" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="13"/>
+      <c r="B74" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="13"/>
+      <c r="B75" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="13"/>
+      <c r="B76" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="76">
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A54:A62"/>
+    <mergeCell ref="A63:A76"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A22:A27"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A36:A44"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/知识库功能点.xlsx
+++ b/document/知识库功能点.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="139">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,14 @@
   </si>
   <si>
     <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档ID，为与华为对应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -748,6 +756,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,11 +768,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,54 +830,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,16 +1310,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1319,7 +1330,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1328,7 +1339,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1348,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1357,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1357,7 +1368,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1395,7 +1406,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1403,7 +1414,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1546,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1574,756 +1585,826 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="20" t="s">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="20" t="s">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="4" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="20" t="s">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="8" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B14" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="9" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18" t="s">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="9" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18" t="s">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="9" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="9" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="25" t="s">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="5" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="24" t="s">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="24"/>
+      <c r="B19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="5" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28" t="s">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
+      <c r="B20" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="7" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="24" t="s">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="24"/>
+      <c r="B21" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="25"/>
+      <c r="B22" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="30" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B23" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="9" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="18" t="s">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="27"/>
+      <c r="B24" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="9" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="18" t="s">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="27"/>
+      <c r="B25" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="9" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="18" t="s">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="27"/>
+      <c r="B26" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="9" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="27"/>
+      <c r="B27" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="32" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="4" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="21"/>
+      <c r="B30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="4" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="4" t="s">
+      <c r="C31" s="16"/>
+      <c r="D31" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="21"/>
+      <c r="B32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="4" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="4" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="21"/>
+      <c r="B34" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="4" t="s">
+      <c r="C34" s="16"/>
+      <c r="D34" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="21"/>
+      <c r="B35" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="4" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="20" t="s">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="21"/>
+      <c r="B36" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="8" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="21"/>
+      <c r="B37" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
+      <c r="C37" s="16"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="21"/>
+      <c r="B38" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="23" t="s">
+      <c r="C38" s="16"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="5" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24" t="s">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="20"/>
+      <c r="B40" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="5" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24" t="s">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="20"/>
+      <c r="B41" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="5" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="23"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="23"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="20"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24" t="s">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="20"/>
+      <c r="B44" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="5" t="s">
+      <c r="C44" s="17"/>
+      <c r="D44" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="23"/>
-      <c r="B44" s="24" t="s">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="20"/>
+      <c r="B45" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="5" t="s">
+      <c r="C45" s="17"/>
+      <c r="D45" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="23"/>
-      <c r="B45" s="28" t="s">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="20"/>
+      <c r="B46" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="7" t="s">
+      <c r="C46" s="19"/>
+      <c r="D46" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24" t="s">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="20"/>
+      <c r="B47" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="5" t="s">
+      <c r="C47" s="17"/>
+      <c r="D47" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24" t="s">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="20"/>
+      <c r="B48" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="5" t="s">
+      <c r="C48" s="17"/>
+      <c r="D48" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24" t="s">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="20"/>
+      <c r="B49" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24" t="s">
+      <c r="C49" s="17"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="20"/>
+      <c r="B50" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="13" t="s">
+      <c r="C50" s="17"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B51" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="4" t="s">
+      <c r="C51" s="16"/>
+      <c r="D51" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14" t="s">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="21"/>
+      <c r="B52" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="4" t="s">
+      <c r="C52" s="16"/>
+      <c r="D52" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14" t="s">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="21"/>
+      <c r="B53" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="4" t="s">
+      <c r="C53" s="16"/>
+      <c r="D53" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14" t="s">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="21"/>
+      <c r="B54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="4" t="s">
+      <c r="C54" s="16"/>
+      <c r="D54" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="23" t="s">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B55" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="5" t="s">
+      <c r="C55" s="17"/>
+      <c r="D55" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24" t="s">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="20"/>
+      <c r="B56" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="5" t="s">
+      <c r="C56" s="17"/>
+      <c r="D56" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="23"/>
-      <c r="B56" s="24" t="s">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="20"/>
+      <c r="B57" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="5" t="s">
+      <c r="C57" s="17"/>
+      <c r="D57" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="23"/>
-      <c r="B57" s="24" t="s">
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="20"/>
+      <c r="B58" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="5" t="s">
+      <c r="C58" s="17"/>
+      <c r="D58" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="23"/>
-      <c r="B58" s="24" t="s">
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="20"/>
+      <c r="B59" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="5" t="s">
+      <c r="C59" s="17"/>
+      <c r="D59" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="23"/>
-      <c r="B59" s="24" t="s">
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="20"/>
+      <c r="B60" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="5" t="s">
+      <c r="C60" s="17"/>
+      <c r="D60" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24" t="s">
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="20"/>
+      <c r="B61" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="5" t="s">
+      <c r="C61" s="17"/>
+      <c r="D61" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24" t="s">
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="20"/>
+      <c r="B62" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="5" t="s">
+      <c r="C62" s="17"/>
+      <c r="D62" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24" t="s">
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="20"/>
+      <c r="B63" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="13" t="s">
+      <c r="C63" s="17"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B64" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="4" t="s">
+      <c r="C64" s="16"/>
+      <c r="D64" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14" t="s">
+    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="21"/>
+      <c r="B65" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="4" t="s">
+      <c r="C65" s="16"/>
+      <c r="D65" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14" t="s">
+    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="21"/>
+      <c r="B66" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="4" t="s">
+      <c r="C66" s="16"/>
+      <c r="D66" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14" t="s">
+    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="21"/>
+      <c r="B67" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="4" t="s">
+      <c r="C67" s="16"/>
+      <c r="D67" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="13"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="13"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="13"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="21"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14" t="s">
+    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="21"/>
+      <c r="B71" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="4" t="s">
+      <c r="C71" s="16"/>
+      <c r="D71" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14" t="s">
+    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="21"/>
+      <c r="B72" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="4" t="s">
+      <c r="C72" s="16"/>
+      <c r="D72" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14" t="s">
+    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="21"/>
+      <c r="B73" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="4" t="s">
+      <c r="C73" s="16"/>
+      <c r="D73" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="13"/>
-      <c r="B73" s="20" t="s">
+    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="21"/>
+      <c r="B74" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="8" t="s">
+      <c r="C74" s="15"/>
+      <c r="D74" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="13"/>
-      <c r="B74" s="20" t="s">
+    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="21"/>
+      <c r="B75" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="8" t="s">
+      <c r="C75" s="15"/>
+      <c r="D75" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14" t="s">
+    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="21"/>
+      <c r="B76" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14" t="s">
+      <c r="C76" s="16"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="21"/>
+      <c r="B77" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="4"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="77">
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="A64:A77"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
@@ -2331,68 +2412,9 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A54:A62"/>
-    <mergeCell ref="A63:A76"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A38:A49"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/知识库功能点.xlsx
+++ b/document/知识库功能点.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="功能点" sheetId="1" r:id="rId1"/>
     <sheet name="技术栈" sheetId="2" r:id="rId2"/>
-    <sheet name="逻辑图" sheetId="3" r:id="rId3"/>
-    <sheet name="数据库表格" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="逻辑图" sheetId="3" r:id="rId4"/>
+    <sheet name="数据库表格" sheetId="4" r:id="rId5"/>
+    <sheet name="后台接口" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="175">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文档表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文档内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>题库表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>试卷表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unitid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考试结果表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exampaperid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>型号列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>历史查询关键词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -616,27 +582,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>href</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ohref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原路径，如：ne40e_troublecase_zh(troublecase)/ne/dc_ne_trouble_100429.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档表(document)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史查询关键词(search_history)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题库表(exam_content)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷表(exam)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位表(unit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表(user)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试结果表(exam_reault)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档内容(document_content)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号列表(type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径，如：/hedex/pages/EDOC100007976930002949/02/EDOC100007976930002949/02/resources/ne40e_troublecase_zh(troublecase)/ne/dc_ne_trouble_100400.html?ft=0&amp;fe=10&amp;hib=1.2.1.1&amp;id=30002949_02_10004&amp;text=%25E5%258D%2595%25E6%259D%25BF%25E5%2591%258A%25E8%25AD%25A6%25E7%2581%25AF%25E4%25BA%25AE%25E5%25B9%25B6%25E6%2589%2593%25E5%258D%25B0%25E6%2597%25A5%25E5%25BF%2597SRM%252F2%252FTMLINEERR&amp;docid=EDOC1000079769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>保留原数据属性，如：30002949_02_10003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>href</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ohref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原路径，如：ne40e_troublecase_zh(troublecase)/ne/dc_ne_trouble_100429.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径，如：/hedex/pages/EDOC100007976930002949/02/EDOC100007976930002949/02/resources/ne40e_troublecase_zh(troublecase)/ne/dc_ne_trouble_100400.html?ft=0&amp;fe=10&amp;hib=1.2.1.1&amp;id=30002949_02_10004&amp;text=%25E5%258D%2595%25E6%259D%25BF%25E5%2591%258A%25E8%25AD%25A6%25E7%2581%25AF%25E4%25BA%25AE%25E5%25B9%25B6%25E6%2589%2593%25E5%258D%25B0%25E6%2597%25A5%25E5%25BF%2597SRM%252F2%252FTMLINEERR&amp;docid=EDOC1000079769</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>children</t>
+    <t>1.一个文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值(均为JSON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document/get/{docid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document/content/{contentid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docid:文档ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docid:文档ID
+proid:型号ID
+pro:型号名称
+nav:文档目录树
+user_id:添加文档的用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.一个文档内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentid:内容ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content;包含html的文档内容
+user_id:添加内容的用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"_id":"5a9a48f7f8bf0ecc1f00002b","docid":"FKOC1000079769","proid":"10001","pro":"\u534e\u4e3a","nav":[]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.类型列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document/type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID和类型名称的字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.搜索文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords:搜索关键字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -820,6 +907,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,11 +931,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -844,68 +994,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1386,16 +1479,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1406,7 +1499,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1415,7 +1508,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1424,7 +1517,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1526,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1444,7 +1537,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1482,7 +1575,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1490,7 +1583,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1538,6 +1631,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1631,12 +1737,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1644,856 +1750,917 @@
     <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="90.375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="90.375" style="14" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="34" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="25"/>
+      <c r="B3" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25"/>
+      <c r="B4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
+      <c r="B6" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="34" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>125</v>
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>146</v>
+        <v>130</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>147</v>
+        <v>131</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>146</v>
+        <v>132</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>147</v>
+        <v>133</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>148</v>
+        <v>134</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>149</v>
+        <v>135</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="25"/>
+      <c r="B20" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="25"/>
+      <c r="B21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="37"/>
+      <c r="B23" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="37"/>
+      <c r="B24" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="38"/>
+      <c r="B25" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
+      <c r="B27" s="21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="34"/>
-    </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="34"/>
-    </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="28"/>
+      <c r="B28" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="28"/>
+      <c r="B29" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="29"/>
+      <c r="B30" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="26"/>
-      <c r="B28" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
-      <c r="B29" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="37"/>
-    </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
-      <c r="B30" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="37"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="36" t="s">
-        <v>115</v>
+        <v>145</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="31"/>
-      <c r="B32" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="36" t="s">
-        <v>116</v>
+      <c r="B32" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31"/>
-      <c r="B33" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="36" t="s">
-        <v>117</v>
+      <c r="B33" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="31"/>
-      <c r="B34" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="36" t="s">
-        <v>119</v>
+      <c r="B34" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="31"/>
       <c r="B35" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C35" s="33"/>
-      <c r="D35" s="36"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="32"/>
       <c r="B36" s="33" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C36" s="33"/>
-      <c r="D36" s="36"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="25"/>
+      <c r="B38" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="25"/>
+      <c r="B39" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="25"/>
+      <c r="B40" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="34" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="25"/>
+      <c r="B41" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="25"/>
+      <c r="B42" s="20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="34" t="s">
+      <c r="C42" s="20"/>
+      <c r="D42" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="25"/>
+      <c r="B43" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14" t="s">
+      <c r="C43" s="20"/>
+      <c r="D43" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="25"/>
+      <c r="B44" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="25"/>
+      <c r="B45" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="25"/>
+      <c r="B46" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="24"/>
+      <c r="B48" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
+    </row>
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="24"/>
+      <c r="B49" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
-      <c r="B44" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="34"/>
-    </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="34"/>
-    </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="37" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="24"/>
+      <c r="B53" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="24"/>
+      <c r="B54" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="24"/>
+      <c r="B55" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="24"/>
+      <c r="B56" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="24"/>
+      <c r="B57" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="24"/>
+      <c r="B58" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="25"/>
+      <c r="B60" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="25"/>
+      <c r="B61" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24" t="s">
+      <c r="C61" s="20"/>
+      <c r="D61" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="25"/>
+      <c r="B62" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="23"/>
-      <c r="B54" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="23"/>
-      <c r="B56" s="24" t="s">
+      <c r="C62" s="20"/>
+      <c r="D62" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="24"/>
+      <c r="B64" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="24"/>
+      <c r="B65" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="24"/>
+      <c r="B66" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="24"/>
+      <c r="B67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="24"/>
+      <c r="B68" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="24"/>
+      <c r="B69" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="24"/>
+      <c r="B70" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="24"/>
+      <c r="B71" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="25"/>
+      <c r="B73" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="25"/>
+      <c r="B74" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="25"/>
+      <c r="B75" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="20"/>
+      <c r="D75" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="23"/>
-      <c r="B57" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="37"/>
-    </row>
-    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="23"/>
-      <c r="B58" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="37"/>
-    </row>
-    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="13"/>
-      <c r="B61" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="23"/>
-      <c r="B67" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="23"/>
-      <c r="B69" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="23"/>
-      <c r="B70" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="23"/>
-      <c r="B71" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="37"/>
-    </row>
-    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="34" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="13"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="13"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="13"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="34" t="s">
-        <v>132</v>
+        <v>52</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="34" t="s">
-        <v>93</v>
+      <c r="A79" s="25"/>
+      <c r="B79" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="20"/>
+      <c r="D79" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="34" t="s">
-        <v>94</v>
+      <c r="A80" s="25"/>
+      <c r="B80" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="34" t="s">
-        <v>95</v>
+      <c r="A81" s="25"/>
+      <c r="B81" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="20"/>
+      <c r="D81" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="13"/>
-      <c r="B82" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="34" t="s">
-        <v>134</v>
+      <c r="A82" s="25"/>
+      <c r="B82" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="13"/>
-      <c r="B83" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="34" t="s">
-        <v>135</v>
+      <c r="A83" s="25"/>
+      <c r="B83" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="13"/>
-      <c r="B84" s="14" t="s">
+      <c r="A84" s="25"/>
+      <c r="B84" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="25"/>
+      <c r="B85" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="34"/>
-    </row>
-    <row r="85" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="13"/>
-      <c r="B85" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="34"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="A72:A85"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B75:C75"/>
@@ -2510,70 +2677,110 @@
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A63:A71"/>
-    <mergeCell ref="A72:A85"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A47:A58"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="40" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="40"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/知识库功能点.xlsx
+++ b/document/知识库功能点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能点" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,10 +487,6 @@
   </si>
   <si>
     <t>节点ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试卷状态：未考试[0]、考试中[1]、考试结束[2]、作废[3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -724,6 +720,34 @@
   </si>
   <si>
     <t>keywords:搜索关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目类型：单选[1]、多选[2]、判断[3]、问答[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷状态：未考试[0]、考试中[1]、考试结束[2]、作废[3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -922,6 +946,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,42 +967,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -978,27 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,16 +1509,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1499,7 +1529,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1508,7 +1538,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1517,7 +1547,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1526,7 +1556,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1537,7 +1567,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1575,7 +1605,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1583,7 +1613,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1739,15 +1769,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="90.375" style="14" customWidth="1"/>
@@ -1758,68 +1788,68 @@
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="30"/>
       <c r="D3" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
         <v>31</v>
@@ -1829,7 +1859,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
         <v>35</v>
@@ -1839,7 +1869,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
         <v>36</v>
@@ -1849,758 +1879,850 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
-      <c r="B21" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="37"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="38"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="35"/>
+      <c r="B29" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="35"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
-      <c r="B33" s="34" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="35"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="34" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="35"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
-      <c r="B35" s="33" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="33"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="20"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="25"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="25"/>
-      <c r="B39" s="20" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="25"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="20"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="25"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="25"/>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="22"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="10" t="s">
+      <c r="C44" s="23"/>
+      <c r="D44" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="25"/>
-      <c r="B43" s="20" t="s">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="10" t="s">
+      <c r="C45" s="23"/>
+      <c r="D45" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="25"/>
-      <c r="B44" s="18" t="s">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="22"/>
+      <c r="B46" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="10" t="s">
+      <c r="C46" s="30"/>
+      <c r="D46" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="25"/>
-      <c r="B45" s="20" t="s">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="25"/>
-      <c r="B46" s="20" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="24" t="s">
+      <c r="C48" s="23"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="32"/>
+      <c r="B50" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="32"/>
+      <c r="B51" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="32"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="32"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="32"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="32"/>
+      <c r="B55" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="32"/>
+      <c r="B56" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="33"/>
+      <c r="D56" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="32"/>
+      <c r="B57" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="32"/>
+      <c r="B58" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="33"/>
+      <c r="D58" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="32"/>
+      <c r="B60" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="33"/>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="33"/>
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B62" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="13" t="s">
+      <c r="C62" s="23"/>
+      <c r="D62" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="24"/>
-      <c r="B48" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="24"/>
-      <c r="B49" s="21" t="s">
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="22"/>
+      <c r="B63" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="22"/>
+      <c r="B65" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="33"/>
+      <c r="D66" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="32"/>
+      <c r="B67" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="33"/>
+      <c r="D67" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="32"/>
+      <c r="B68" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="33"/>
+      <c r="D68" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="32"/>
+      <c r="B69" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="33"/>
+      <c r="D69" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="32"/>
+      <c r="B70" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="33"/>
+      <c r="D70" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="32"/>
+      <c r="B71" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="33"/>
+      <c r="D71" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="32"/>
+      <c r="B72" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="33"/>
+      <c r="D72" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="32"/>
+      <c r="B73" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="33"/>
+      <c r="D73" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="32"/>
+      <c r="B74" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="33"/>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="22"/>
+      <c r="B76" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="22"/>
+      <c r="B77" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="22"/>
+      <c r="B78" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="13" t="s">
+      <c r="C78" s="23"/>
+      <c r="D78" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="24"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5" t="s">
+    <row r="79" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="22"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D79" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="24"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5" t="s">
+    <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="22"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="24"/>
-      <c r="B52" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="24"/>
-      <c r="B53" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="24"/>
-      <c r="B54" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="24"/>
-      <c r="B55" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="24"/>
-      <c r="B56" s="21" t="s">
+      <c r="D80" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="22"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="22"/>
+      <c r="B82" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="24"/>
-      <c r="B57" s="21" t="s">
+      <c r="C82" s="23"/>
+      <c r="D82" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="22"/>
+      <c r="B83" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="22"/>
+      <c r="B84" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="23"/>
+      <c r="D84" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="22"/>
+      <c r="B85" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="22"/>
+      <c r="B86" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="30"/>
+      <c r="D86" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="22"/>
+      <c r="B87" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="13"/>
-    </row>
-    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="24"/>
-      <c r="B58" s="21" t="s">
+      <c r="C87" s="23"/>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="22"/>
+      <c r="B88" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="13"/>
-    </row>
-    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="25"/>
-      <c r="B60" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="25"/>
-      <c r="B61" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="25"/>
-      <c r="B62" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="24"/>
-      <c r="B64" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="24"/>
-      <c r="B65" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="24"/>
-      <c r="B66" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="24"/>
-      <c r="B67" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="24"/>
-      <c r="B68" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="24"/>
-      <c r="B69" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="24"/>
-      <c r="B70" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="24"/>
-      <c r="B71" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="13"/>
-    </row>
-    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="25"/>
-      <c r="B73" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="25"/>
-      <c r="B74" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="25"/>
-      <c r="B75" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="25"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="25"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="25"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="25"/>
-      <c r="B79" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="25"/>
-      <c r="B80" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="25"/>
-      <c r="B81" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="25"/>
-      <c r="B82" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="25"/>
-      <c r="B83" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="25"/>
-      <c r="B84" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="10"/>
-    </row>
-    <row r="85" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="25"/>
-      <c r="B85" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="10"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="A49:A61"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A62:A65"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B20:C20"/>
@@ -2612,71 +2734,9 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A47:A58"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A63:A71"/>
-    <mergeCell ref="A72:A85"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B66:C66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2688,94 +2748,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="40" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="18" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40"/>
+      <c r="A1" s="18"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="40"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="40" t="s">
+      <c r="C4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
+      <c r="B5" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="D5" t="s">
         <v>170</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
+      <c r="B6" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="C6" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/document/知识库功能点.xlsx
+++ b/document/知识库功能点.xlsx
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>questionid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,6 +744,10 @@
   </si>
   <si>
     <t>试卷状态：未考试[0]、考试中[1]、考试结束[2]、作废[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,11 +967,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -981,54 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1788,78 +1788,78 @@
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="23"/>
       <c r="D3" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="23"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="24"/>
       <c r="D4" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="30"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="23"/>
       <c r="D5" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
         <v>35</v>
@@ -1869,7 +1869,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
         <v>36</v>
@@ -1879,787 +1879,848 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="10" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
+      <c r="B21" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="28"/>
+      <c r="A22" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="39"/>
       <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="41"/>
+      <c r="B24" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="12" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="25"/>
-      <c r="B24" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="12" t="s">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="42"/>
+      <c r="B25" s="38" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="12" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="37" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="13" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
+      <c r="B30" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="38" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="33" t="s">
+      <c r="C31" s="39"/>
+      <c r="D31" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="35"/>
+      <c r="B32" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="35"/>
+      <c r="B33" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="35"/>
+      <c r="B34" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="35"/>
+      <c r="B35" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="36"/>
-      <c r="B30" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39" t="s">
+      <c r="C36" s="37"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
-      <c r="B32" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="40"/>
-      <c r="B33" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="40"/>
-      <c r="B34" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="40"/>
-      <c r="B35" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="22"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="22"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="23"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="29"/>
+      <c r="B45" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="10" t="s">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="29"/>
+      <c r="B46" s="22" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="22"/>
-      <c r="B46" s="29" t="s">
+      <c r="C46" s="23"/>
+      <c r="D46" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="10" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="29"/>
+      <c r="B48" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="23"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="33" t="s">
+      <c r="A49" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="33"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="33"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="32"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="32"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="32"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33" t="s">
+      <c r="A55" s="28"/>
+      <c r="B55" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="33"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33" t="s">
+      <c r="A56" s="28"/>
+      <c r="B56" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="33"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="28"/>
+      <c r="B57" s="26" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="32"/>
-      <c r="B57" s="37" t="s">
+      <c r="C57" s="27"/>
+      <c r="D57" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="13" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="33"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="32"/>
-      <c r="B59" s="33" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="33"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="33"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33" t="s">
+      <c r="A61" s="28"/>
+      <c r="B61" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="33"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="23" t="s">
+      <c r="A62" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="23"/>
+      <c r="C62" s="24"/>
       <c r="D62" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="23"/>
+      <c r="C63" s="24"/>
       <c r="D63" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23" t="s">
+      <c r="A64" s="29"/>
+      <c r="B64" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="24"/>
       <c r="D64" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23" t="s">
+      <c r="A65" s="29"/>
+      <c r="B65" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="23"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="33" t="s">
+      <c r="A66" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="33"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="32"/>
-      <c r="B67" s="33" t="s">
+      <c r="A67" s="28"/>
+      <c r="B67" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="33"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="32"/>
-      <c r="B68" s="33" t="s">
+      <c r="A68" s="28"/>
+      <c r="B68" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="33"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="32"/>
-      <c r="B69" s="33" t="s">
+      <c r="A69" s="28"/>
+      <c r="B69" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C69" s="33"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="32"/>
-      <c r="B70" s="33" t="s">
+      <c r="A70" s="28"/>
+      <c r="B70" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="33"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="32"/>
-      <c r="B71" s="33" t="s">
+      <c r="A71" s="28"/>
+      <c r="B71" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="33"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="32"/>
-      <c r="B72" s="33" t="s">
+      <c r="A72" s="28"/>
+      <c r="B72" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="33"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="32"/>
-      <c r="B73" s="33" t="s">
+      <c r="A73" s="28"/>
+      <c r="B73" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="33"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="32"/>
-      <c r="B74" s="33" t="s">
+      <c r="A74" s="28"/>
+      <c r="B74" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C74" s="33"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="23" t="s">
+      <c r="A75" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="23"/>
+      <c r="C75" s="24"/>
       <c r="D75" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="22"/>
-      <c r="B76" s="23" t="s">
+      <c r="A76" s="29"/>
+      <c r="B76" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="23"/>
+      <c r="C76" s="24"/>
       <c r="D76" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="23"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="24"/>
       <c r="D77" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23" t="s">
+      <c r="A78" s="29"/>
+      <c r="B78" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="23"/>
+      <c r="C78" s="24"/>
       <c r="D78" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="22"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="22"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="22"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D81" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="29"/>
+      <c r="B82" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="29"/>
+      <c r="B83" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="29"/>
+      <c r="B84" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="29"/>
+      <c r="B85" s="22" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="22"/>
-      <c r="B85" s="29" t="s">
+      <c r="C85" s="23"/>
+      <c r="D85" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="10" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="29"/>
+      <c r="B86" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="22"/>
-      <c r="B86" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="87" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="22"/>
-      <c r="B87" s="23" t="s">
+      <c r="A87" s="29"/>
+      <c r="B87" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="23"/>
+      <c r="C87" s="24"/>
       <c r="D87" s="10"/>
     </row>
     <row r="88" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23" t="s">
+      <c r="A88" s="29"/>
+      <c r="B88" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="23"/>
+      <c r="C88" s="24"/>
       <c r="D88" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="A49:A61"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="B86:C86"/>
     <mergeCell ref="B78:C78"/>
@@ -2676,67 +2737,6 @@
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="A75:A88"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="A49:A61"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2769,73 +2769,73 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>156</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>163</v>
-      </c>
       <c r="E3" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="18" t="s">
         <v>165</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>166</v>
       </c>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="D5" t="s">
         <v>169</v>
-      </c>
-      <c r="D5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/document/知识库功能点.xlsx
+++ b/document/知识库功能点.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="188">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,10 +255,6 @@
   </si>
   <si>
     <t>examtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -748,6 +744,38 @@
   </si>
   <si>
     <t>fraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试总人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewcnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -958,6 +986,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,42 +1001,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1014,21 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,16 +1543,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1529,7 +1563,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1572,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1547,7 +1581,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1556,7 +1590,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1567,7 +1601,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1605,7 +1639,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1613,7 +1647,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1769,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1788,78 +1822,78 @@
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="23"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="32"/>
       <c r="D3" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="24"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="25"/>
       <c r="D4" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="23"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="32"/>
       <c r="D5" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
         <v>35</v>
@@ -1869,7 +1903,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
         <v>36</v>
@@ -1879,788 +1913,881 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="10" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="39"/>
+      <c r="A22" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="30"/>
       <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="41"/>
-      <c r="B23" s="38" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="27"/>
+      <c r="B24" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="12" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41"/>
-      <c r="B24" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="12" t="s">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="42"/>
-      <c r="B25" s="38" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="12" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="13" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="37"/>
+      <c r="B29" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="38"/>
+      <c r="B30" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="25" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="42"/>
+      <c r="B32" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="42"/>
+      <c r="B33" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="42"/>
+      <c r="B34" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="42"/>
+      <c r="B35" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="43"/>
+      <c r="B36" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="34" t="s">
+      <c r="C36" s="44"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
-      <c r="B32" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
-      <c r="B33" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
-      <c r="B34" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
-      <c r="B35" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
-      <c r="B38" s="24" t="s">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
-      <c r="B39" s="24" t="s">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
-      <c r="B40" s="24" t="s">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="24"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="29"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="24" t="s">
+      <c r="A44" s="24"/>
+      <c r="B44" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="24"/>
+      <c r="B45" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
-      <c r="B45" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="10" t="s">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="24"/>
+      <c r="B46" s="31" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
-      <c r="B46" s="22" t="s">
+      <c r="C46" s="32"/>
+      <c r="D46" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="10" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
-      <c r="B47" s="24" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="24"/>
+      <c r="B48" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
-      <c r="B48" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="24"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="25" t="s">
+      <c r="A49" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
-      <c r="B50" s="25" t="s">
+      <c r="A50" s="34"/>
+      <c r="B50" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
-      <c r="B51" s="25" t="s">
+      <c r="A51" s="34"/>
+      <c r="B51" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="28"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="28"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="28"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="34"/>
+      <c r="B55" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="34"/>
+      <c r="B56" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="34"/>
+      <c r="B57" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="34"/>
+      <c r="B58" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="35"/>
+      <c r="D58" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="34"/>
+      <c r="B59" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="35"/>
+      <c r="D59" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="34"/>
+      <c r="B60" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="34"/>
+      <c r="B61" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="35"/>
+      <c r="D61" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="34"/>
+      <c r="B62" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="35"/>
+      <c r="D62" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="34"/>
+      <c r="B63" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="35"/>
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="34"/>
+      <c r="B64" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="35"/>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="24"/>
+      <c r="B66" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="24"/>
+      <c r="B67" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="25"/>
+      <c r="D67" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="24"/>
+      <c r="B68" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="35"/>
+      <c r="D69" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="34"/>
+      <c r="B70" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="35"/>
+      <c r="D70" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="34"/>
+      <c r="B71" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="35"/>
+      <c r="D71" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="34"/>
+      <c r="B72" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="35"/>
+      <c r="D72" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="34"/>
+      <c r="B73" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="35"/>
+      <c r="D73" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="34"/>
+      <c r="B74" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="35"/>
+      <c r="D74" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="34"/>
+      <c r="B75" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="35"/>
+      <c r="D75" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="34"/>
+      <c r="B76" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="35"/>
+      <c r="D76" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="34"/>
+      <c r="B77" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="35"/>
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="24"/>
+      <c r="B79" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="24"/>
+      <c r="B80" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="25"/>
+      <c r="D80" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="24"/>
+      <c r="B81" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="24"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="13" t="s">
+    </row>
+    <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="24"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="28"/>
-      <c r="B55" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="28"/>
-      <c r="B56" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="28"/>
-      <c r="B57" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
-      <c r="B58" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="28"/>
-      <c r="B59" s="25" t="s">
+    <row r="84" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="24"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="24"/>
+      <c r="B85" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="25" t="s">
+      <c r="C85" s="25"/>
+      <c r="D85" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="24"/>
+      <c r="B86" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="25"/>
+      <c r="D86" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="24"/>
+      <c r="B87" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="24"/>
+      <c r="B88" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="D88" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="24"/>
+      <c r="B89" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="32"/>
+      <c r="D89" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="24"/>
+      <c r="B90" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="13"/>
-    </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="28"/>
-      <c r="B61" s="25" t="s">
+      <c r="C90" s="25"/>
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="24"/>
+      <c r="B91" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="13"/>
-    </row>
-    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="29"/>
-      <c r="B63" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="29"/>
-      <c r="B64" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="29"/>
-      <c r="B65" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="28"/>
-      <c r="B67" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="28"/>
-      <c r="B68" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="28"/>
-      <c r="B69" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="28"/>
-      <c r="B71" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="28"/>
-      <c r="B72" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="28"/>
-      <c r="B73" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="28"/>
-      <c r="B74" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="13"/>
-    </row>
-    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="29"/>
-      <c r="B76" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="29"/>
-      <c r="B77" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="29"/>
-      <c r="B78" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="29"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="29"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="29"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="29"/>
-      <c r="B82" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="29"/>
-      <c r="B83" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="29"/>
-      <c r="B84" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="29"/>
-      <c r="B85" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="29"/>
-      <c r="B86" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="29"/>
-      <c r="B87" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="10"/>
-    </row>
-    <row r="88" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="29"/>
-      <c r="B88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="10"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="A62:A65"/>
+  <mergeCells count="78">
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A69:A77"/>
+    <mergeCell ref="A78:A91"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="A49:A64"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A65:A68"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B20:C20"/>
@@ -2675,68 +2802,6 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="A49:A61"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="A75:A88"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B69:C69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2769,73 +2834,73 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>162</v>
-      </c>
       <c r="E3" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="18" t="s">
         <v>164</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>165</v>
       </c>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="D5" t="s">
         <v>168</v>
-      </c>
-      <c r="D5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/document/知识库功能点.xlsx
+++ b/document/知识库功能点.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="功能点" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,17 @@
     <sheet name="数据库表格" sheetId="4" r:id="rId5"/>
     <sheet name="后台接口" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="200">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,6 +753,82 @@
   </si>
   <si>
     <t>fraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.添加题库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examcontent/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">type:类型 title:题目标题 content:描述 options: option: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.修改题库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.删除题库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.添加试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title: qustion: examtime: delay: duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.修改试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam/edit/{examid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examcontent/delete/{contentid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examcontent/edit/{contentid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.删除试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam/delete/{examid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,51 +903,51 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -874,27 +955,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,7 +1113,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1062,7 +1143,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1075,7 +1156,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1083,17 +1164,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1108,13 +1178,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1127,7 +1197,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1135,17 +1205,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1158,15 +1217,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>546100</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>26</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1179,7 +1238,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1187,17 +1246,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1251,7 +1299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1286,7 +1334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1501,14 +1549,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="84.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="84.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1517,7 +1565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="28">
       <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +1576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -1537,7 +1585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -1546,7 +1594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -1555,7 +1603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
@@ -1566,7 +1614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1">
       <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -1575,7 +1623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1588,6 +1636,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1599,12 +1652,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1612,13 +1665,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1">
       <c r="A2" s="21"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1626,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1634,7 +1687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="19.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1657,6 +1710,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1666,10 +1724,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1677,11 +1740,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="AE56" sqref="AE56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1703,7 +1766,7 @@
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>59</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>139700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1722,13 +1785,13 @@
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>63500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
+                <xdr:colOff>406400</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>101600</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1745,15 +1808,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:colOff>546100</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>101600</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>26</xdr:col>
                 <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>127000</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1764,6 +1827,11 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1771,20 +1839,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="90.375" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="90.33203125" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="24" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1796,7 +1864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>142</v>
       </c>
@@ -1808,7 +1876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1">
       <c r="A3" s="29"/>
       <c r="B3" s="22" t="s">
         <v>125</v>
@@ -1818,7 +1886,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1">
       <c r="A4" s="29"/>
       <c r="B4" s="24" t="s">
         <v>97</v>
@@ -1828,7 +1896,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1">
       <c r="A5" s="29"/>
       <c r="B5" s="22" t="s">
         <v>89</v>
@@ -1838,7 +1906,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1">
       <c r="A6" s="29"/>
       <c r="B6" s="22" t="s">
         <v>33</v>
@@ -1848,7 +1916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1">
       <c r="A7" s="29"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
@@ -1858,7 +1926,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1">
       <c r="A8" s="29"/>
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
@@ -1868,7 +1936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1">
       <c r="A9" s="29"/>
       <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
@@ -1878,7 +1946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="84">
       <c r="A10" s="29"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
@@ -1888,7 +1956,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1">
       <c r="A11" s="29"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
@@ -1898,7 +1966,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1">
       <c r="A12" s="29"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -1908,7 +1976,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1">
       <c r="A13" s="29"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
@@ -1918,7 +1986,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1">
       <c r="A14" s="29"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
@@ -1928,7 +1996,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1">
       <c r="A15" s="29"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
@@ -1938,7 +2006,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1">
       <c r="A16" s="29"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
@@ -1948,7 +2016,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1">
       <c r="A17" s="29"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
@@ -1958,7 +2026,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
@@ -1968,7 +2036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1">
       <c r="A19" s="29"/>
       <c r="B19" s="22" t="s">
         <v>100</v>
@@ -1978,7 +2046,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="24" t="s">
         <v>126</v>
@@ -1986,7 +2054,7 @@
       <c r="C20" s="24"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1">
       <c r="A21" s="29"/>
       <c r="B21" s="24" t="s">
         <v>127</v>
@@ -1994,7 +2062,7 @@
       <c r="C21" s="24"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1">
       <c r="A22" s="40" t="s">
         <v>150</v>
       </c>
@@ -2006,7 +2074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1">
       <c r="A23" s="41"/>
       <c r="B23" s="38" t="s">
         <v>90</v>
@@ -2016,7 +2084,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1">
       <c r="A24" s="41"/>
       <c r="B24" s="38" t="s">
         <v>91</v>
@@ -2026,7 +2094,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1">
       <c r="A25" s="42"/>
       <c r="B25" s="38" t="s">
         <v>94</v>
@@ -2036,7 +2104,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1">
       <c r="A26" s="31" t="s">
         <v>149</v>
       </c>
@@ -2048,7 +2116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="25" t="s">
         <v>42</v>
@@ -2058,7 +2126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="26" t="s">
         <v>100</v>
@@ -2068,7 +2136,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="25" t="s">
         <v>98</v>
@@ -2076,7 +2144,7 @@
       <c r="C29" s="25"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1">
       <c r="A30" s="33"/>
       <c r="B30" s="25" t="s">
         <v>99</v>
@@ -2084,7 +2152,7 @@
       <c r="C30" s="25"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1">
       <c r="A31" s="34" t="s">
         <v>143</v>
       </c>
@@ -2096,7 +2164,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1">
       <c r="A32" s="35"/>
       <c r="B32" s="38" t="s">
         <v>103</v>
@@ -2106,7 +2174,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1">
       <c r="A33" s="35"/>
       <c r="B33" s="38" t="s">
         <v>104</v>
@@ -2116,7 +2184,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1">
       <c r="A34" s="35"/>
       <c r="B34" s="38" t="s">
         <v>108</v>
@@ -2126,7 +2194,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1">
       <c r="A35" s="35"/>
       <c r="B35" s="37" t="s">
         <v>98</v>
@@ -2134,7 +2202,7 @@
       <c r="C35" s="37"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1">
       <c r="A36" s="36"/>
       <c r="B36" s="37" t="s">
         <v>99</v>
@@ -2142,7 +2210,7 @@
       <c r="C36" s="37"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1">
       <c r="A37" s="29" t="s">
         <v>144</v>
       </c>
@@ -2154,7 +2222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1">
       <c r="A38" s="29"/>
       <c r="B38" s="24" t="s">
         <v>45</v>
@@ -2164,7 +2232,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1">
       <c r="A39" s="29"/>
       <c r="B39" s="24" t="s">
         <v>35</v>
@@ -2174,7 +2242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1">
       <c r="A40" s="29"/>
       <c r="B40" s="24" t="s">
         <v>42</v>
@@ -2184,7 +2252,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1">
       <c r="A41" s="29"/>
       <c r="B41" s="24" t="s">
         <v>46</v>
@@ -2194,7 +2262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15" t="s">
@@ -2204,7 +2272,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15" t="s">
@@ -2214,7 +2282,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1">
       <c r="A44" s="29"/>
       <c r="B44" s="24" t="s">
         <v>50</v>
@@ -2224,7 +2292,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1">
       <c r="A45" s="29"/>
       <c r="B45" s="24" t="s">
         <v>51</v>
@@ -2234,7 +2302,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1">
       <c r="A46" s="29"/>
       <c r="B46" s="22" t="s">
         <v>113</v>
@@ -2244,7 +2312,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1">
       <c r="A47" s="29"/>
       <c r="B47" s="24" t="s">
         <v>98</v>
@@ -2252,7 +2320,7 @@
       <c r="C47" s="24"/>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1">
       <c r="A48" s="29"/>
       <c r="B48" s="24" t="s">
         <v>99</v>
@@ -2260,7 +2328,7 @@
       <c r="C48" s="24"/>
       <c r="D48" s="10"/>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1">
       <c r="A49" s="28" t="s">
         <v>145</v>
       </c>
@@ -2272,7 +2340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1">
       <c r="A50" s="28"/>
       <c r="B50" s="25" t="s">
         <v>35</v>
@@ -2282,7 +2350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1">
       <c r="A51" s="28"/>
       <c r="B51" s="25" t="s">
         <v>54</v>
@@ -2292,17 +2360,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1">
       <c r="A52" s="28"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1">
       <c r="A53" s="28"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16" t="s">
@@ -2312,7 +2380,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1">
       <c r="A54" s="28"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
@@ -2322,7 +2390,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1">
       <c r="A55" s="28"/>
       <c r="B55" s="25" t="s">
         <v>57</v>
@@ -2332,7 +2400,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1">
       <c r="A56" s="28"/>
       <c r="B56" s="25" t="s">
         <v>58</v>
@@ -2342,7 +2410,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1">
       <c r="A57" s="28"/>
       <c r="B57" s="26" t="s">
         <v>118</v>
@@ -2352,7 +2420,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="19.5" customHeight="1">
       <c r="A58" s="28"/>
       <c r="B58" s="25" t="s">
         <v>59</v>
@@ -2362,7 +2430,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="19.5" customHeight="1">
       <c r="A59" s="28"/>
       <c r="B59" s="25" t="s">
         <v>51</v>
@@ -2372,7 +2440,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" ht="19.5" customHeight="1">
       <c r="A60" s="28"/>
       <c r="B60" s="25" t="s">
         <v>37</v>
@@ -2380,7 +2448,7 @@
       <c r="C60" s="25"/>
       <c r="D60" s="13"/>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" ht="19.5" customHeight="1">
       <c r="A61" s="28"/>
       <c r="B61" s="25" t="s">
         <v>38</v>
@@ -2388,7 +2456,7 @@
       <c r="C61" s="25"/>
       <c r="D61" s="13"/>
     </row>
-    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" ht="19.5" customHeight="1">
       <c r="A62" s="29" t="s">
         <v>146</v>
       </c>
@@ -2400,7 +2468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" ht="19.5" customHeight="1">
       <c r="A63" s="29"/>
       <c r="B63" s="24" t="s">
         <v>60</v>
@@ -2410,7 +2478,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" ht="19.5" customHeight="1">
       <c r="A64" s="29"/>
       <c r="B64" s="24" t="s">
         <v>61</v>
@@ -2420,7 +2488,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="19.5" customHeight="1">
       <c r="A65" s="29"/>
       <c r="B65" s="24" t="s">
         <v>62</v>
@@ -2430,7 +2498,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" ht="19.5" customHeight="1">
       <c r="A66" s="28" t="s">
         <v>147</v>
       </c>
@@ -2442,7 +2510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" ht="19.5" customHeight="1">
       <c r="A67" s="28"/>
       <c r="B67" s="25" t="s">
         <v>66</v>
@@ -2452,7 +2520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="19.5" customHeight="1">
       <c r="A68" s="28"/>
       <c r="B68" s="25" t="s">
         <v>60</v>
@@ -2462,7 +2530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" ht="19.5" customHeight="1">
       <c r="A69" s="28"/>
       <c r="B69" s="25" t="s">
         <v>45</v>
@@ -2472,7 +2540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" ht="19.5" customHeight="1">
       <c r="A70" s="28"/>
       <c r="B70" s="25" t="s">
         <v>70</v>
@@ -2482,7 +2550,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="19.5" customHeight="1">
       <c r="A71" s="28"/>
       <c r="B71" s="25" t="s">
         <v>67</v>
@@ -2492,7 +2560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" ht="19.5" customHeight="1">
       <c r="A72" s="28"/>
       <c r="B72" s="25" t="s">
         <v>57</v>
@@ -2502,7 +2570,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" ht="19.5" customHeight="1">
       <c r="A73" s="28"/>
       <c r="B73" s="25" t="s">
         <v>37</v>
@@ -2512,7 +2580,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" ht="19.5" customHeight="1">
       <c r="A74" s="28"/>
       <c r="B74" s="25" t="s">
         <v>38</v>
@@ -2520,7 +2588,7 @@
       <c r="C74" s="25"/>
       <c r="D74" s="13"/>
     </row>
-    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="19.5" customHeight="1">
       <c r="A75" s="29" t="s">
         <v>148</v>
       </c>
@@ -2532,7 +2600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="19.5" customHeight="1">
       <c r="A76" s="29"/>
       <c r="B76" s="24" t="s">
         <v>76</v>
@@ -2542,7 +2610,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" ht="19.5" customHeight="1">
       <c r="A77" s="29"/>
       <c r="B77" s="24" t="s">
         <v>180</v>
@@ -2552,7 +2620,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" ht="19.5" customHeight="1">
       <c r="A78" s="29"/>
       <c r="B78" s="24" t="s">
         <v>54</v>
@@ -2562,7 +2630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="19.5" customHeight="1">
       <c r="A79" s="29"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
@@ -2572,7 +2640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" ht="19.5" customHeight="1">
       <c r="A80" s="29"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4" t="s">
@@ -2582,7 +2650,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" ht="19.5" customHeight="1">
       <c r="A81" s="29"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
@@ -2592,7 +2660,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" ht="19.5" customHeight="1">
       <c r="A82" s="29"/>
       <c r="B82" s="24" t="s">
         <v>51</v>
@@ -2602,7 +2670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" ht="19.5" customHeight="1">
       <c r="A83" s="29"/>
       <c r="B83" s="24" t="s">
         <v>83</v>
@@ -2612,7 +2680,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" ht="19.5" customHeight="1">
       <c r="A84" s="29"/>
       <c r="B84" s="24" t="s">
         <v>84</v>
@@ -2622,7 +2690,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" ht="19.5" customHeight="1">
       <c r="A85" s="29"/>
       <c r="B85" s="22" t="s">
         <v>122</v>
@@ -2632,7 +2700,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" ht="19.5" customHeight="1">
       <c r="A86" s="29"/>
       <c r="B86" s="22" t="s">
         <v>113</v>
@@ -2642,7 +2710,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" ht="19.5" customHeight="1">
       <c r="A87" s="29"/>
       <c r="B87" s="24" t="s">
         <v>37</v>
@@ -2650,7 +2718,7 @@
       <c r="C87" s="24"/>
       <c r="D87" s="10"/>
     </row>
-    <row r="88" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" ht="19.5" customHeight="1">
       <c r="A88" s="29"/>
       <c r="B88" s="24" t="s">
         <v>38</v>
@@ -2741,106 +2809,204 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="17" customWidth="1"/>
+    <col min="1" max="2" width="11.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="18"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="18"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E1" s="1"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="73.5" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>163</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="17" t="s">
         <v>167</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="30.75" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>170</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="112" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28">
+      <c r="A8" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28">
+      <c r="A9" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/document/知识库功能点.xlsx
+++ b/document/知识库功能点.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="192">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,14 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导航树json对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,14 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>proname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>型号名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>family</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中文大类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,10 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>节点ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考试时长，单位分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,10 +562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文档表(document)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>历史查询关键词(search_history)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,23 +574,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位表(unit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户表(user)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>考试结果表(exam_reault)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档内容(document_content)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号列表(type)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -776,6 +736,62 @@
   </si>
   <si>
     <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>family</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档表(document)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档内容(document_content)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点ID，父节点为空时，为根节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号列表(pro_type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位表(unit)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,62 +966,110 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1015,54 +1079,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1803,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1814,7 +1830,7 @@
     <col min="1" max="1" width="29.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="90.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="90.375" style="12" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1822,915 +1838,996 @@
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="31"/>
+      <c r="B3" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="31"/>
+      <c r="B4" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="31"/>
+      <c r="B5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31"/>
+      <c r="B6" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="31"/>
+      <c r="B7" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="31"/>
+      <c r="B8" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="43"/>
+      <c r="B10" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="43"/>
+      <c r="B11" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="44"/>
+      <c r="B12" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="34"/>
+      <c r="B14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="34"/>
+      <c r="B20" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="34"/>
+      <c r="B21" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="34"/>
+      <c r="B22" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="34"/>
+      <c r="B23" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="34"/>
+      <c r="B24" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="34"/>
+      <c r="B25" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="25" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="34"/>
+      <c r="B26" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="34"/>
+      <c r="B27" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="34"/>
+      <c r="B28" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="34"/>
+      <c r="B29" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="34"/>
+      <c r="B30" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="35"/>
+      <c r="B31" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="37"/>
+      <c r="B33" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="37"/>
+      <c r="B34" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="37"/>
+      <c r="B35" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="37"/>
+      <c r="B36" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="31" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="31"/>
+      <c r="B39" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="31"/>
+      <c r="B40" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="31"/>
+      <c r="B41" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="31"/>
+      <c r="B42" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="31"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="31"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="31"/>
+      <c r="B45" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="31"/>
+      <c r="B46" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="31"/>
+      <c r="B47" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="31"/>
+      <c r="B48" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="31"/>
+      <c r="B49" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="4" t="s">
+      <c r="C50" s="27"/>
+      <c r="D50" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="30"/>
+      <c r="B51" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="30"/>
+      <c r="B52" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="30"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="30"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="30"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="30"/>
+      <c r="B56" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="30"/>
+      <c r="B57" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="30"/>
+      <c r="B58" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="30"/>
+      <c r="B59" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="30"/>
+      <c r="B60" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="30"/>
+      <c r="B61" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="30"/>
+      <c r="B62" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="30"/>
+      <c r="B63" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="30"/>
+      <c r="B64" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4" t="s">
+      <c r="C64" s="27"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="30"/>
+      <c r="B65" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+      <c r="C65" s="27"/>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="31"/>
+      <c r="B67" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="31"/>
+      <c r="B68" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="31"/>
+      <c r="B69" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="B70" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="30"/>
+      <c r="B71" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="30"/>
+      <c r="B72" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="30"/>
+      <c r="B73" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="27"/>
+      <c r="D73" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="30"/>
+      <c r="B74" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="27"/>
+      <c r="D74" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="30"/>
+      <c r="B75" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="27"/>
+      <c r="D75" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="30"/>
+      <c r="B76" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="30"/>
+      <c r="B77" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="27"/>
+      <c r="D77" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="30"/>
+      <c r="B78" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="27"/>
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="31" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="B79" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="26"/>
+      <c r="D79" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
-      <c r="B27" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="37"/>
-      <c r="B28" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="37"/>
-      <c r="B29" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="38"/>
-      <c r="B30" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="42"/>
-      <c r="B32" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="42"/>
-      <c r="B35" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="24"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="24"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="24"/>
-      <c r="B46" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="10" t="s">
+    <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="31"/>
+      <c r="B80" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="26"/>
+      <c r="D80" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="31"/>
+      <c r="B81" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="26"/>
+      <c r="D81" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="34"/>
-      <c r="B50" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="13" t="s">
+    <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="31"/>
+      <c r="B82" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="26"/>
+      <c r="D82" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="34"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="34"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="34"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="34"/>
-      <c r="B55" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="34"/>
-      <c r="B56" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="34"/>
-      <c r="B57" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="34"/>
-      <c r="B58" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="34"/>
-      <c r="B59" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="34"/>
-      <c r="B60" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="34"/>
-      <c r="B61" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="34"/>
-      <c r="B62" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="34"/>
-      <c r="B63" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="13"/>
-    </row>
-    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="34"/>
-      <c r="B64" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="13"/>
-    </row>
-    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="24"/>
-      <c r="B68" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="34"/>
-      <c r="B70" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="34"/>
-      <c r="B71" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="34"/>
-      <c r="B72" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="35"/>
-      <c r="D72" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="34"/>
-      <c r="B73" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="35"/>
-      <c r="D73" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="34"/>
-      <c r="B74" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="34"/>
-      <c r="B75" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="34"/>
-      <c r="B76" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="34"/>
-      <c r="B77" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="35"/>
-      <c r="D77" s="13"/>
-    </row>
-    <row r="78" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="24"/>
-      <c r="B79" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="24"/>
-      <c r="B80" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="24"/>
-      <c r="B81" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="24"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="24"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="24"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>120</v>
+        <v>75</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="24"/>
-      <c r="B85" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="10" t="s">
+      <c r="A85" s="31"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="31"/>
+      <c r="B86" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="26"/>
+      <c r="D86" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="31"/>
+      <c r="B87" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="26"/>
+      <c r="D87" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="31"/>
+      <c r="B88" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="26"/>
+      <c r="D88" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="24"/>
-      <c r="B86" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="24"/>
-      <c r="B87" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="24"/>
-      <c r="B88" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="89" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="24"/>
-      <c r="B89" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="10" t="s">
-        <v>123</v>
+      <c r="A89" s="31"/>
+      <c r="B89" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="24"/>
-      <c r="B90" s="25" t="s">
-        <v>37</v>
+      <c r="A90" s="31"/>
+      <c r="B90" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="C90" s="25"/>
-      <c r="D90" s="10"/>
+      <c r="D90" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="24"/>
-      <c r="B91" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="10"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="26"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="31"/>
+      <c r="B92" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="26"/>
+      <c r="D92" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="88">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A13:A31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A70:A78"/>
+    <mergeCell ref="A79:A92"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
     <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
@@ -2738,70 +2835,9 @@
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A69:A77"/>
-    <mergeCell ref="A78:A91"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="A49:A64"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2819,88 +2855,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="16" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
+      <c r="A1" s="16"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="18"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="D4" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="D5" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="C6" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
